--- a/ExcelData/Data.xlsx
+++ b/ExcelData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUDITKU\Documents\UiPath\TestAutomationProject\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC944F8E-AD73-4A7C-AD8A-AB3FA902A8D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF5CF-D4A6-43BD-ABFA-290D44B1B235}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEE16087-FC79-45A9-8EDD-D20C75C220AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>First Name:</t>
   </si>
@@ -158,13 +158,16 @@
     <t>Hkumar1</t>
   </si>
   <si>
-    <t>Gaur</t>
-  </si>
-  <si>
-    <t>gaud12@gmail.com</t>
-  </si>
-  <si>
-    <t>sss3</t>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>mudkhareharrr</t>
+  </si>
+  <si>
+    <t>khre4001gfg@gmail.com</t>
+  </si>
+  <si>
+    <t>sss30215435pl</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,16 +595,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>

--- a/ExcelData/Data.xlsx
+++ b/ExcelData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUDITKU\Documents\UiPath\TestAutomationProject\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACF5CF-D4A6-43BD-ABFA-290D44B1B235}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A310BA-4951-4BAD-9168-C49726D44C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEE16087-FC79-45A9-8EDD-D20C75C220AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>First Name:</t>
   </si>
@@ -158,16 +158,13 @@
     <t>Hkumar1</t>
   </si>
   <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>mudkhareharrr</t>
-  </si>
-  <si>
-    <t>khre4001gfg@gmail.com</t>
-  </si>
-  <si>
-    <t>sss30215435pl</t>
+    <t>dsdsd</t>
+  </si>
+  <si>
+    <t>mudit.kumar10@gmail.com</t>
+  </si>
+  <si>
+    <t>mudit6</t>
   </si>
 </sst>
 </file>
@@ -564,15 +561,15 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,16 +592,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>

--- a/ExcelData/Data.xlsx
+++ b/ExcelData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUDITKU\Documents\UiPath\TestAutomationProject\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A310BA-4951-4BAD-9168-C49726D44C20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CF2B62-A31C-4F9E-85D3-E06FFC081E8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEE16087-FC79-45A9-8EDD-D20C75C220AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>First Name:</t>
   </si>
@@ -158,13 +158,16 @@
     <t>Hkumar1</t>
   </si>
   <si>
-    <t>dsdsd</t>
-  </si>
-  <si>
-    <t>mudit.kumar10@gmail.com</t>
-  </si>
-  <si>
-    <t>mudit6</t>
+    <t>Shad</t>
+  </si>
+  <si>
+    <t>rhai</t>
+  </si>
+  <si>
+    <t>mudit.kumar0909@gmail.com</t>
+  </si>
+  <si>
+    <t>mudit0909</t>
   </si>
 </sst>
 </file>
@@ -595,13 +598,13 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
